--- a/DOM_Banner/output/dept0788/Robert L Crocker_2022.xlsx
+++ b/DOM_Banner/output/dept0788/Robert L Crocker_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Andrew Weil Center for Integrative Medicine, United States; University of Arizona, College of Medicine, United States; Andrew Weil Center for Integrative Medicine, United States; University of Arizona, College of Medicine, United States; Andrew Weil Center for Integrative Medicine, United States; University of Arizona, College of Medicine, United States; Andrew Weil Center for Integrative Medicine, United States; University of Arizona, College of Medicine, United States; Andrew Weil Center for Integrative Medicine, United States; University of Arizona, College of Medicine, United States; Andrew Weil Center for Integrative Medicine, United States; University of Arizona, United States; Andrew Weil Center for Integrative Medicine, United States; University of Arizona, College of Medicine, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3115204297</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Integrative medicine considerations for convalescence from mild-to-moderate COVID-19 disease</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>EXPLORE</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.explore.2020.12.005</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/33358750</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.explore.2020.12.005</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, the University of Arizona , Tucson, AZ 85724 , USA; Andrew Weil Center for Integrative Medicine, the University of Arizona , Tucson, AZ 85724 , USA; Andrew Weil Center for Integrative Medicine, the University of Arizona , Tucson, AZ 85724 , USA; Andrew Weil Center for Integrative Medicine, the University of Arizona , Tucson, AZ 85724 , USA; Andrew Weil Center for Integrative Medicine, the University of Arizona , Tucson, AZ 85724 , USA; Andrew Weil Center for Integrative Medicine, the University of Arizona , Tucson, AZ 85724 , USA; Andrew Weil Center for Integrative Medicine, the University of Arizona , Tucson, AZ 85724 , USA; El Rio Community Health Center , Tucson, AZ 85745 , USA; El Rio Community Health Center , Tucson, AZ 85745 , USA; Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, the University of Arizona , Tucson, AZ 85724 , USA; Andrew Weil Center for Integrative Medicine, the University of Arizona , Tucson, AZ 85724 , USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281709737</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;i&gt;My Wellness Coach&lt;/i&gt;: evaluation of a mobile app designed to promote integrative health among underserved populations</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Translational Behavioral Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/tbm/ibac015</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35661225</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/tbm/ibac015</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206633944</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Mobile App Intervention on Reducing the Myeloproliferative Neoplasm Symptom Burden: Pilot Feasibility and Acceptability Study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-03-31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>JMIR formative research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2196/33581</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35357315</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.2196/33581</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Sandia National Laboratories (SNL), Albuquerque, NM, and Livermore, CA (United States); Sandia National Laboratories (SNL), Albuquerque, NM, and Livermore, CA (United States); Sandia National Laboratories (SNL), Albuquerque, NM, and Livermore, CA (United States)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310289334</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>V31 Test Report</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,14 +738,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2172/1895026</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.2172/1895026</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>report</t>
         </is>
@@ -773,26 +798,21 @@
           <t>Robert Crocker</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://openalex.org/W4310763091</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Religion and Schooling in Canada</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,14 +820,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2307/j.ctv33b9q0q</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +835,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.2307/j.ctv33b9q0q</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>book</t>
         </is>
@@ -857,39 +882,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Livermore, California, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312463030</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Design Modifications to the Explosive Destruction System Closure System</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-07-17</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Volume 2: Computer Technology and Bolted Joints; Design and Analysis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1115/pvp2022-82285</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +922,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1115/pvp2022-82285</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +969,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388347132</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>DESIGN MODIFICATIONS TO THE EXPLOSIVE DESTRUCTION SYSTEM CLOSURE SYSTEM .</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,14 +994,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2172/2003979</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1009,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.2172/2003979</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0788/Robert L Crocker_2022.xlsx
+++ b/DOM_Banner/output/dept0788/Robert L Crocker_2022.xlsx
@@ -795,27 +795,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Robert Crocker</t>
+          <t>J.S. Ludwigsen, Jerome H. Stofleth, Megan Tribble, Robert Crocker</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Livermore, California, United States</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310763091</t>
+          <t>https://openalex.org/W4312463030</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Religion and Schooling in Canada</t>
+          <t>Design Modifications to the Explosive Destruction System Closure System</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Volume 2: Computer Technology and Bolted Joints; Design and Analysis</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -825,7 +830,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/j.ctv33b9q0q</t>
+          <t>https://doi.org/10.1115/pvp2022-82285</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -840,7 +845,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +870,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/j.ctv33b9q0q</t>
+          <t>https://doi.org/10.1115/pvp2022-82285</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>article</t>
         </is>
       </c>
     </row>
@@ -882,27 +887,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Albuquerque, New Mexico, United States; Sandia National Laboratories , Livermore, California, United States</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312463030</t>
+          <t>https://openalex.org/W4388347132</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Design Modifications to the Explosive Destruction System Closure System</t>
+          <t>DESIGN MODIFICATIONS TO THE EXPLOSIVE DESTRUCTION SYSTEM CLOSURE SYSTEM .</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Volume 2: Computer Technology and Bolted Joints; Design and Analysis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -912,7 +917,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/pvp2022-82285</t>
+          <t>https://doi.org/10.2172/2003979</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -952,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/pvp2022-82285</t>
+          <t>https://doi.org/10.2172/2003979</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -964,27 +969,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J.S. Ludwigsen, Jerome H. Stofleth, Megan Tribble, Robert Crocker</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">; ; ; </t>
+          <t>Robert Crocker</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388347132</t>
+          <t>https://openalex.org/W4310763091</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DESIGN MODIFICATIONS TO THE EXPLOSIVE DESTRUCTION SYSTEM CLOSURE SYSTEM .</t>
+          <t>Religion and Schooling in Canada</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/2003979</t>
+          <t>https://doi.org/10.2307/j.ctv33b9q0q</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/2003979</t>
+          <t>https://doi.org/10.2307/j.ctv33b9q0q</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book</t>
         </is>
       </c>
     </row>
